--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep_since_2022/ifoCAst_errors_last_rep_latest_since_2022_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep_since_2022/ifoCAst_errors_last_rep_latest_since_2022_GVA.xlsx
@@ -443,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2601534814259835</v>
+        <v>0.24128467758209</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1.468880585300236</v>
+        <v>-1.459370673031765</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -467,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.788328404264559</v>
+        <v>0.7977233685636995</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.046340567331129</v>
+        <v>1.027544699529146</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -483,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1279530128375473</v>
+        <v>0.1374695422775655</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.9320335390585944</v>
+        <v>-0.9225503716806988</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5556741615100106</v>
+        <v>0.5557457034887239</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -507,7 +507,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.129468777484837</v>
+        <v>1.11054283609348</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -515,7 +515,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.7211232408064123</v>
+        <v>0.7305722247131936</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -531,7 +531,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.5253523983890247</v>
+        <v>-0.4776197014916527</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -539,12 +539,15 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.1542060022360053</v>
+        <v>0.04982731217580827</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.2651053283564908</v>
       </c>
     </row>
     <row r="17" spans="1:1">
